--- a/export_pc.xlsx
+++ b/export_pc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Appendix 69</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Property Number:</t>
+  </si>
+  <si>
+    <t>AS-GSD-NC-15-441</t>
   </si>
   <si>
     <t>Description :</t>
@@ -66,6 +69,17 @@
   </si>
   <si>
     <t>Office/Officer</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For repair (Cavite)
+</t>
   </si>
 </sst>
 </file>
@@ -154,7 +168,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border/>
     <border>
       <top style="medium">
@@ -290,12 +304,17 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -410,8 +429,8 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -421,6 +440,9 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +747,7 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,12 +860,14 @@
       <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="27" s="8" customFormat="1">
       <c r="A10" s="21"/>
       <c r="B10" s="33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -856,26 +880,26 @@
     <row r="11" spans="1:10" s="8" customFormat="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1">
@@ -883,43 +907,75 @@
       <c r="B12" s="23"/>
       <c r="C12" s="37"/>
       <c r="D12" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="39"/>
-      <c r="J13"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="39">
+        <v>1</v>
+      </c>
+      <c r="H13" s="41">
+        <v>18954.24</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="39"/>
-      <c r="J14"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>1</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="39">
+        <v>1</v>
+      </c>
+      <c r="H14" s="41">
+        <v>18954.24</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="21"/>
@@ -1078,24 +1134,26 @@
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29"/>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="20"/>
